--- a/logisim/28条指令CPU任务/闵鑫豪.xlsx
+++ b/logisim/28条指令CPU任务/闵鑫豪.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="17540"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="运算器规格" sheetId="3" r:id="rId3"/>
     <sheet name="控制信号产生条件" sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">控制信号表达式生成!$A$1:$AL$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">真值表!$A$1:$AI$25</definedName>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="123">
   <si>
     <t>#</t>
   </si>
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t>PCSrc0</t>
-  </si>
-  <si>
-    <t>可增加列，自定义控制信号</t>
   </si>
   <si>
     <t>SLL</t>
@@ -1604,7 +1604,67 @@
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1759,6 +1819,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="真值表"/>
+      <sheetName val="控制信号表达式生成"/>
+      <sheetName val="运算器规格"/>
+      <sheetName val="控制信号产生条件"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2022,10 +2101,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="0.39991454817346722"/>
   </sheetPr>
-  <dimension ref="A1:AL57"/>
+  <dimension ref="A1:AM57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="Y1" zoomScale="109" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AM29" sqref="AL1:AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2048,7 +2127,7 @@
     <col min="34" max="37" width="9" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="17" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="17" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -2155,21 +2234,24 @@
         <v>34</v>
       </c>
       <c r="AJ1" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK1" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL1" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="47">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="24">
         <v>0</v>
@@ -2264,13 +2346,19 @@
       <c r="AI2" s="24"/>
       <c r="AJ2" s="24"/>
       <c r="AK2" s="24"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL2" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="27">
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="28">
         <v>0</v>
@@ -2365,13 +2453,19 @@
       <c r="AI3" s="28"/>
       <c r="AJ3" s="28"/>
       <c r="AK3" s="28"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="47">
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="24">
         <v>0</v>
@@ -2466,13 +2560,19 @@
       <c r="AI4" s="24"/>
       <c r="AJ4" s="24"/>
       <c r="AK4" s="24"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL4" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="27">
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="28">
         <v>0</v>
@@ -2567,13 +2667,19 @@
       <c r="AI5" s="28"/>
       <c r="AJ5" s="28"/>
       <c r="AK5" s="28"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL5" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="47">
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="24">
         <v>0</v>
@@ -2668,13 +2774,19 @@
       <c r="AI6" s="24"/>
       <c r="AJ6" s="24"/>
       <c r="AK6" s="24"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL6" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="28">
         <v>0</v>
@@ -2769,13 +2881,19 @@
       <c r="AI7" s="28"/>
       <c r="AJ7" s="28"/>
       <c r="AK7" s="28"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL7" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="47">
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="24">
         <v>0</v>
@@ -2870,13 +2988,19 @@
       <c r="AI8" s="24"/>
       <c r="AJ8" s="24"/>
       <c r="AK8" s="24"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL8" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="27">
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="28">
         <v>0</v>
@@ -2971,13 +3095,19 @@
       <c r="AI9" s="28"/>
       <c r="AJ9" s="28"/>
       <c r="AK9" s="28"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL9" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="47">
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="24">
         <v>0</v>
@@ -3072,13 +3202,19 @@
       <c r="AI10" s="24"/>
       <c r="AJ10" s="24"/>
       <c r="AK10" s="24"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL10" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="27">
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="28">
         <v>0</v>
@@ -3173,13 +3309,19 @@
       <c r="AI11" s="28"/>
       <c r="AJ11" s="28"/>
       <c r="AK11" s="28"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL11" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="47">
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="24">
         <v>0</v>
@@ -3274,8 +3416,14 @@
       <c r="AI12" s="24"/>
       <c r="AJ12" s="24"/>
       <c r="AK12" s="24"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL12" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -3337,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R13" s="27" t="str">
         <f t="shared" si="12"/>
@@ -3379,8 +3527,15 @@
       </c>
       <c r="AJ13" s="28"/>
       <c r="AK13" s="28"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL13" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="42">
+        <f>[1]真值表!AN13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="47">
         <v>13</v>
       </c>
@@ -3442,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R14" s="23" t="str">
         <f t="shared" si="12"/>
@@ -3478,19 +3633,25 @@
       <c r="AI14" s="24"/>
       <c r="AJ14" s="24"/>
       <c r="AK14" s="24"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL14" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="27">
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="28">
         <v>2</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="28">
         <f t="shared" si="0"/>
@@ -3541,7 +3702,7 @@
         <v>X</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R15" s="27" t="str">
         <f t="shared" si="12"/>
@@ -3581,8 +3742,16 @@
       </c>
       <c r="AJ15" s="28"/>
       <c r="AK15" s="28"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL15" s="42">
+        <f>[1]真值表!AM15</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="42">
+        <f>[1]真值表!AN15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="47">
         <v>15</v>
       </c>
@@ -3593,7 +3762,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="24">
         <f t="shared" si="0"/>
@@ -3644,7 +3813,7 @@
         <v>X</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R16" s="23" t="str">
         <f t="shared" si="12"/>
@@ -3688,8 +3857,16 @@
       </c>
       <c r="AJ16" s="24"/>
       <c r="AK16" s="24"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL16" s="41">
+        <f>[1]真值表!AM16</f>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="41">
+        <f>[1]真值表!AN16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="27">
         <v>16</v>
       </c>
@@ -3700,7 +3877,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="28">
         <f t="shared" si="0"/>
@@ -3751,7 +3928,7 @@
         <v>X</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R17" s="27" t="str">
         <f t="shared" si="12"/>
@@ -3789,8 +3966,14 @@
       <c r="AI17" s="28"/>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="28"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL17" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="47">
         <v>17</v>
       </c>
@@ -3801,7 +3984,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="24">
         <f t="shared" si="0"/>
@@ -3852,7 +4035,7 @@
         <v>X</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R18" s="23" t="str">
         <f t="shared" si="12"/>
@@ -3890,19 +4073,25 @@
       <c r="AI18" s="24"/>
       <c r="AJ18" s="24"/>
       <c r="AK18" s="24"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL18" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="28">
         <v>8</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="28">
         <f t="shared" si="0"/>
@@ -3993,19 +4182,26 @@
       <c r="AI19" s="28"/>
       <c r="AJ19" s="28"/>
       <c r="AK19" s="28"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL19" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="42">
+        <f>[1]真值表!AN19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="47">
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="24">
         <v>12</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="24">
         <f t="shared" si="0"/>
@@ -4094,19 +4290,26 @@
       <c r="AI20" s="24"/>
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL20" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="41">
+        <f>[1]真值表!AN20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="28">
         <v>9</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="28">
         <f t="shared" si="0"/>
@@ -4197,19 +4400,26 @@
       <c r="AI21" s="28"/>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="28"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL21" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="42">
+        <f>[1]真值表!AN21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="47">
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="24">
         <v>10</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="24">
         <f t="shared" si="0"/>
@@ -4300,19 +4510,26 @@
       <c r="AI22" s="24"/>
       <c r="AJ22" s="24"/>
       <c r="AK22" s="24"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL22" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="41">
+        <f>[1]真值表!AN22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="27">
         <v>22</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="28">
         <v>13</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="28">
         <f t="shared" si="0"/>
@@ -4401,19 +4618,26 @@
       <c r="AI23" s="28"/>
       <c r="AJ23" s="28"/>
       <c r="AK23" s="28"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL23" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="42">
+        <f>[1]真值表!AN23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="47">
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="24">
         <v>35</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="24">
         <f t="shared" si="0"/>
@@ -4506,19 +4730,25 @@
       <c r="AI24" s="24"/>
       <c r="AJ24" s="24"/>
       <c r="AK24" s="24"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL24" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="27">
         <v>24</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="28">
         <v>43</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="28">
         <f t="shared" si="0"/>
@@ -4609,13 +4839,19 @@
       <c r="AI25" s="28"/>
       <c r="AJ25" s="28"/>
       <c r="AK25" s="28"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL25" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="47">
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="24">
         <v>0</v>
@@ -4712,19 +4948,25 @@
         <v>1</v>
       </c>
       <c r="AK26" s="24"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL26" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="27">
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="28">
         <v>14</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="28">
         <f t="shared" si="16"/>
@@ -4801,19 +5043,26 @@
       <c r="AI27" s="28"/>
       <c r="AJ27" s="28"/>
       <c r="AK27" s="28"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL27" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="42">
+        <f>[1]真值表!AN27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="47">
         <v>0</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="24">
         <v>40</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="24">
         <f t="shared" si="16"/>
@@ -4891,19 +5140,25 @@
       <c r="AI28" s="24"/>
       <c r="AJ28" s="24"/>
       <c r="AK28" s="24"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL28" s="41">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="27">
         <v>28</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="28">
         <v>6</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="28">
         <f t="shared" si="16"/>
@@ -4954,7 +5209,7 @@
         <v>X</v>
       </c>
       <c r="Q29" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R29" s="62"/>
       <c r="S29" s="62"/>
@@ -4980,8 +5235,14 @@
       <c r="AK29" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL29" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
       <c r="C30" s="23"/>
@@ -5020,7 +5281,7 @@
       <c r="AJ30" s="24"/>
       <c r="AK30" s="24"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
       <c r="B31" s="50"/>
       <c r="C31" s="27"/>
@@ -5059,7 +5320,7 @@
       <c r="AJ31" s="28"/>
       <c r="AK31" s="28"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
       <c r="C32" s="23"/>
@@ -6079,75 +6340,86 @@
   </protectedRanges>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="AJ1">
-    <cfRule type="cellIs" priority="3" operator="notEqual">
+    <cfRule type="cellIs" priority="5" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1">
-    <cfRule type="cellIs" priority="2" operator="notEqual">
+    <cfRule type="cellIs" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26:Q29">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:AG1 V58:AG1048576">
-    <cfRule type="cellIs" priority="15" operator="notEqual">
+    <cfRule type="cellIs" priority="17" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AI1 AH58:AI1048576">
-    <cfRule type="cellIs" priority="9" operator="notEqual">
+    <cfRule type="cellIs" priority="11" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:AG25">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AI25">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AK25">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA26:AG57 V26:Y57 Z26:Z27 Z29:Z57">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH26:AI57">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ26:AK57">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ58:AK1048576">
-    <cfRule type="cellIs" priority="6" operator="notEqual">
+    <cfRule type="cellIs" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <conditionalFormatting sqref="AL1:AM3">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL4:AM29">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="10">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="R1:U1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="Z26 Z27 Z29:Z1048576 V1:AG25 AH1:AK25 V26:Y1048576 AH26:AK1048576 AA26:AG1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B25 B26:B29 B30:B1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入MIPS指令字的OpCode的十进制数，后续隐藏列会自动生成OpCode字段6位的二进制位" sqref="C1:C25 C26:C29 C30:C1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FUNC(十进制)" prompt="输入MIPS指令字的Func字段的10进制数，无Func字段填&quot;X&quot;，后续隐藏列会自动生成Func字段6位的二进制位" sqref="D1:D25 D26:D29 D30:D1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALU运算选择信号" prompt="请输入当前指令的AluOp十进制编码，后续隐藏列会自动生成对应的二进制位，如不需要使用ALU可以输入&quot;X&quot;" sqref="Q1:Q25 Q26:Q29 Q30:Q1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="E1:J25 E30:J1048576 E26:J29"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="K1:P25 K30:P1048576 K26:P29"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位_x000a_" sqref="R2:U25 R26:U57"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="Z26:Z27 Z29:Z1048576 V1:AK25 V26:Y1048576 AA26:AK1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入MIPS指令字的OpCode的十进制数，后续隐藏列会自动生成OpCode字段6位的二进制位" sqref="C1:C1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FUNC(十进制)" prompt="输入MIPS指令字的Func字段的10进制数，无Func字段填&quot;X&quot;，后续隐藏列会自动生成Func字段6位的二进制位" sqref="D1:D1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALU运算选择信号" prompt="请输入当前指令的AluOp十进制编码，后续隐藏列会自动生成对应的二进制位，如不需要使用ALU可以输入&quot;X&quot;" sqref="Q1:Q1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="E1:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="K1:P1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位_x000a_" sqref="R2:U57"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AL1:AM29"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6161,8 +6433,8 @@
   </sheetPr>
   <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="113" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AN27" sqref="AN27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6239,7 +6511,7 @@
         <v>F0</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="36" t="str">
         <f>真值表!R1</f>
@@ -6322,10 +6594,10 @@
         <v>BLEZ</v>
       </c>
       <c r="AK1" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" s="40" t="s">
         <v>57</v>
-      </c>
-      <c r="AL1" s="40" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
@@ -8149,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="AL13" s="42">
-        <f>真值表!AM13</f>
+        <f>[1]真值表!AM13</f>
         <v>0</v>
       </c>
     </row>
@@ -8451,11 +8723,11 @@
         <v>0</v>
       </c>
       <c r="AK15" s="42">
-        <f>真值表!AL15</f>
+        <f>[1]真值表!AL15</f>
         <v>0</v>
       </c>
       <c r="AL15" s="42">
-        <f>真值表!AM15</f>
+        <f>[1]真值表!AM15</f>
         <v>0</v>
       </c>
     </row>
@@ -8605,11 +8877,11 @@
         <v>0</v>
       </c>
       <c r="AK16" s="41">
-        <f>真值表!AL16</f>
+        <f>[1]真值表!AL16</f>
         <v>0</v>
       </c>
       <c r="AL16" s="41">
-        <f>真值表!AM16</f>
+        <f>[1]真值表!AM16</f>
         <v>0</v>
       </c>
     </row>
@@ -9066,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="AL19" s="42">
-        <f>真值表!AM19</f>
+        <f>[1]真值表!AM19</f>
         <v>0</v>
       </c>
     </row>
@@ -9219,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="AL20" s="41">
-        <f>真值表!AM20</f>
+        <f>[1]真值表!AM20</f>
         <v>0</v>
       </c>
     </row>
@@ -9372,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="AL21" s="42">
-        <f>真值表!AM21</f>
+        <f>[1]真值表!AM21</f>
         <v>0</v>
       </c>
     </row>
@@ -9525,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="AL22" s="41">
-        <f>真值表!AM22</f>
+        <f>[1]真值表!AM22</f>
         <v>0</v>
       </c>
     </row>
@@ -9678,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="AL23" s="42">
-        <f>真值表!AM23</f>
+        <f>[1]真值表!AM23</f>
         <v>0</v>
       </c>
     </row>
@@ -10278,11 +10550,10 @@
         <v>0</v>
       </c>
       <c r="AK27" s="42">
-        <f>真值表!AL27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="42">
-        <f>真值表!AM27</f>
+        <f>[1]真值表!AM27</f>
         <v>0</v>
       </c>
     </row>
@@ -10296,7 +10567,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="26" t="str">
         <f>IF(真值表!E28=1," "&amp;真值表!E$1&amp;" ",IF(真值表!E28=0,"~"&amp;真值表!E$1&amp;" ",""))</f>
@@ -10429,11 +10700,10 @@
         <v>0</v>
       </c>
       <c r="AK28" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="41">
-        <f>真值表!AM28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
@@ -10445,7 +10715,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="30" t="str">
         <f>IF(真值表!E29=1," "&amp;真值表!E$1&amp;" ",IF(真值表!E29=0,"~"&amp;真值表!E$1&amp;" ",""))</f>
@@ -10583,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="AL29" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
@@ -12417,17 +12687,27 @@
   <autoFilter ref="A1:AL29"/>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:AF3 Q78:AF1048576">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AJ3 AG78:AJ1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:AF77">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG4:AJ77">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12436,18 +12716,8 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:AF77">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AJ77">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AL29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12455,12 +12725,12 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入MIPS指令字的OpCode的十进制数，后续隐藏列会自动生成OpCode字段6位的二进制位" sqref="B1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FUNC(十进制)" prompt="输入MIPS指令字的Func字段的10进制数，无Func字段填&quot;X&quot;，后续隐藏列会自动生成Func字段6位的二进制位" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="逻辑表达式最小项" prompt="当前指令Opcode以及Func字段的逻辑表达式" sqref="P25 P1:P24 P26:P1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AF1:AF25 AF26:AF1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="逻辑表达式最小项" prompt="当前指令Opcode以及Func字段的逻辑表达式" sqref="P1:P1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AF1:AF1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="运算器功能选择端ALU_OP 的四位" prompt="S3 S2 S1 S0" sqref="Q1:T25"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AG1:AJ25 AG26:AJ1048576 AK1:AL25 AK26:AL29"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AG1:AJ1048576 AK1:AL29"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选对应信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制该列的表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="Q26:T1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。_x000a__x000a_另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="U1:AE25 U26:AE1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。_x000a__x000a_另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="U1:AE1048576"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12490,98 +12760,98 @@
         <v>16</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="12">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="12">
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="12">
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="12">
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -12592,7 +12862,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -12603,7 +12873,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -12614,7 +12884,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -12625,7 +12895,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -12636,7 +12906,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -12668,13 +12938,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12685,10 +12955,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12699,10 +12969,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12710,13 +12980,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12724,13 +12994,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12741,10 +13011,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12752,13 +13022,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12769,10 +13039,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12783,10 +13053,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12797,10 +13067,10 @@
         <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12811,10 +13081,10 @@
         <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12822,13 +13092,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12836,13 +13106,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12850,13 +13120,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
